--- a/data/trans_orig/P14C20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C20-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABF453B3-5CD2-4A06-911F-4D73A0BB57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C5A533-AC94-4AB9-A2CF-390D3A02B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3F3E8CC-B5B8-4C87-8E63-16A6FB8611DC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5B075A8-0417-4141-B2AA-0F312E502CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="112">
   <si>
     <t>Población según el tiempo de diagnóstico del hemorroides en 2015 (Tasa respuesta: 1,04%)</t>
   </si>
@@ -128,49 +128,49 @@
     <t>66,2%</t>
   </si>
   <si>
-    <t>14,97%</t>
+    <t>17,2%</t>
   </si>
   <si>
     <t>78,62%</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>85,03%</t>
+    <t>82,8%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -179,13 +179,13 @@
     <t>5,14%</t>
   </si>
   <si>
-    <t>34,3%</t>
+    <t>25,72%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>18,91%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -194,43 +194,37 @@
     <t>78,72%</t>
   </si>
   <si>
-    <t>37,4%</t>
+    <t>42,42%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>43,5%</t>
+    <t>44,78%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>61,19%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>62,6%</t>
+    <t>57,58%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>56,5%</t>
+    <t>55,22%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>38,81%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -248,49 +242,49 @@
     <t>81,89%</t>
   </si>
   <si>
-    <t>49,67%</t>
+    <t>47,16%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>75,46%</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>50,33%</t>
+    <t>52,84%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -299,67 +293,67 @@
     <t>7,54%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>34,45%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>20,78%</t>
+    <t>19,83%</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -368,13 +362,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>15,23%</t>
+    <t>16,1%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CCCB77-3EE2-4C15-8C73-821E3A7C6F37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6831A162-D3EF-4449-8B49-A339B4A612B8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1559,7 +1553,7 @@
         <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,13 +1568,13 @@
         <v>1977</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1589,13 +1583,13 @@
         <v>985</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1604,13 +1598,13 @@
         <v>2962</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1646,7 +1640,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1661,7 +1655,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,7 +1711,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1729,10 +1723,10 @@
         <v>10090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1744,13 +1738,13 @@
         <v>10017</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -1759,13 +1753,13 @@
         <v>20107</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1774,13 @@
         <v>2231</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1795,13 +1789,13 @@
         <v>3228</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1810,13 +1804,13 @@
         <v>5459</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,7 +1831,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1846,13 +1840,13 @@
         <v>1080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1861,13 +1855,13 @@
         <v>1080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1929,13 @@
         <v>24402</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -1950,13 +1944,13 @@
         <v>36407</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -1965,13 +1959,13 @@
         <v>60809</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1980,13 @@
         <v>7111</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2001,13 +1995,13 @@
         <v>7441</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2016,13 +2010,13 @@
         <v>14552</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2052,13 +2046,13 @@
         <v>2102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2067,13 +2061,13 @@
         <v>2102</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,7 +2123,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C20-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C5A533-AC94-4AB9-A2CF-390D3A02B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC030EE-C676-48EF-A402-5E089ABBB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5B075A8-0417-4141-B2AA-0F312E502CB1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12DD0A6F-0743-4C3A-8440-CA805093548B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="112">
-  <si>
-    <t>Población según el tiempo de diagnóstico del hemorroides en 2015 (Tasa respuesta: 1,04%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="113">
+  <si>
+    <t>Población según el tiempo de diagnóstico del hemorroides en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -122,55 +122,55 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>17,2%</t>
+    <t>14,9%</t>
   </si>
   <si>
     <t>78,62%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>82,8%</t>
+    <t>85,1%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -179,52 +179,58 @@
     <t>5,14%</t>
   </si>
   <si>
-    <t>25,72%</t>
+    <t>27,02%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>42,42%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>44,78%</t>
+    <t>44,79%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>61,19%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>57,58%</t>
+    <t>58,68%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>55,22%</t>
+    <t>55,21%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>38,81%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -242,118 +248,115 @@
     <t>81,89%</t>
   </si>
   <si>
-    <t>47,16%</t>
+    <t>44,91%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>75,46%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>52,84%</t>
+    <t>55,09%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>32,18%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>19,83%</t>
+    <t>18,17%</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -362,13 +365,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>16,1%</t>
+    <t>14,51%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>9,8%</t>
+    <t>8,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6831A162-D3EF-4449-8B49-A339B4A612B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEB3304-3223-4556-921D-207463E1FFD7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1553,7 +1556,7 @@
         <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1568,13 +1571,13 @@
         <v>1977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1583,13 +1586,13 @@
         <v>985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1598,13 +1601,13 @@
         <v>2962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,7 +1628,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1640,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1655,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,7 +1714,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1723,10 +1726,10 @@
         <v>10090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1738,13 +1741,13 @@
         <v>10017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -1753,13 +1756,13 @@
         <v>20107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,13 +1777,13 @@
         <v>2231</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1789,13 +1792,13 @@
         <v>3228</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1804,13 +1807,13 @@
         <v>5459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1840,13 +1843,13 @@
         <v>1080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1855,13 +1858,13 @@
         <v>1080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1932,13 @@
         <v>24402</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -1944,13 +1947,13 @@
         <v>36407</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -1959,13 +1962,13 @@
         <v>60809</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1983,13 @@
         <v>7111</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -1995,13 +1998,13 @@
         <v>7441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2010,13 +2013,13 @@
         <v>14552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,7 +2040,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2046,13 +2049,13 @@
         <v>2102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2061,13 +2064,13 @@
         <v>2102</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,7 +2126,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
